--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3DA79-5F25-4580-9404-FBB07E1A4FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA61F56-B202-4164-87C7-8778F4287EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B44E0707-5529-4A48-833F-6F1B1B595673}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B44E0707-5529-4A48-833F-6F1B1B595673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sliding Window" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>SR.NO</t>
   </si>
@@ -60,9 +60,6 @@
     <t>1. When taget is detected find Occ1 and Occr Last ,                       2. Occ1: end=mid-1   3.Occ2=Start=Mid+1;</t>
   </si>
   <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <t>Similar Prob</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>Rotation Count Of Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here, Catch is that Half array will be sorted and Half will be unsorted. Our Answer Lies in the Unsorted Part.                           . 1.if (s&lt;m)   first half ls sorted                                                           2.if (m&lt;e)  Last Half is Sorted  </t>
   </si>
   <si>
     <t>Search In A Rotated Sorted Array</t>
@@ -105,12 +99,6 @@
     <t>Max of all Subarrays of size K (Static)</t>
   </si>
   <si>
-    <t>Longest Substring With K Distinc Characters (Variable)</t>
-  </si>
-  <si>
-    <t>1. Use hashmap to store character and there count             2.When the Size of map means number of characters is =k Store ans if &lt;K continue if &gt;K make it =k and then store ans</t>
-  </si>
-  <si>
     <t>Longest Substring With All Distinct Characters(Variable)</t>
   </si>
   <si>
@@ -131,12 +119,84 @@
   <si>
     <t>Fruits in Basket (Variable)</t>
   </si>
+  <si>
+    <t>Longest Substring With K Distinct Characters (Variable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Use hashmap to store character and there count             2.When the Size of map means number of characters is               3.  =k Store ans                                                                                      4. if &lt;K continue                                                                                      5.if &gt;K make it =k and then store the ans </t>
+  </si>
+  <si>
+    <t>Find the Pivot element in a Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here the MOST IMP change in Binary Search is that when restructuring the array make sure that the Element lies in either 1st Half or the second Half . So when when restuctring , dnt do -1 on both sides here in step 3 we r not doing -1 only in step 1 we r doing tht  </t>
+  </si>
+  <si>
+    <t>Mid is an element where its prev and its next Both are Greater than it.                                                                                                       .1.If mid&lt;prev and mid&lt;next --&gt;ANS                                               2.If mid&gt;[0] -&gt;s=mid+1                                                                       3. if mid&lt;[n-1] -&gt;e=mid</t>
+  </si>
+  <si>
+    <t>Keep the start index fix to 0 and end index fix to n-1 dp not put dynamic variables s and e</t>
+  </si>
+  <si>
+    <t>1. Find the Pivot element                                                                 2. Now we have 2 sub arrays spilitted by pivot element                 3.Call the BS on both Sub arrays one will return -1 and one will return ans we have to return the ans. And if Both are -1 return it</t>
+  </si>
+  <si>
+    <t>Floor of An Element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Ceil of An Element in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Use basic binary Search                                                                    1.While moving to left store the Index as it is a possible floor value (Means store the less value than k)</t>
+  </si>
+  <si>
+    <t>Use basic binary Search                                                                    1.While moving to Right store the Index as it is a possible floor value (Means store the Greater value than k)</t>
+  </si>
+  <si>
+    <t>Next Alphabet in a Sorted Array</t>
+  </si>
+  <si>
+    <t>Exactly same as Ceil of an element only change is that ,            We do not return target element if found we only return if any greater value is present                                                                                                                                                                    We return the first element in the index if the Value is not present in the array  and is less than first element of array</t>
+  </si>
+  <si>
+    <t>Index of first 1 in a Binary Infinite Sorted Array</t>
+  </si>
+  <si>
+    <t>Index in a Infinite Sorted Array</t>
+  </si>
+  <si>
+    <t>Since we do not know where will be the Key present,                    1.We start with s=0 and e=1; till we get the key between s and e , we update our s to e and e to e*2                                             2.Now since we gor our Infinite Window cropped, we have s and e and we know Key lies in between we can use General Binary Search to solve Problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. First Crop the Infinite Array till we find 1 is present.                 2. Once we know the e, Apply BS to get the First Occurance </t>
+  </si>
+  <si>
+    <t>Peak Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Here , Compare mid with its next and prev element and shift Accordingly.                                                                                   2.While loop goes from till s&lt;e and not s&lt;=e    3.Catch here is, When shifting to Right do mid+1, but                                    4.When shifting to Left do mid since we do not want to go past the Mid value     </t>
+  </si>
+  <si>
+    <t>Seach In A Sorted Matrix(Row and Column Wise)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since We know How it is sorted ,                                                     1.Start from the Top Right Corner                                                 2.If Target is More it shuld be down somewhere. So move down column wise Operation                                                                     3.If target is less it should be on the Left side somewhere so Move Row wise Back </t>
+  </si>
+  <si>
+    <t>Book Allocation</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Rotation Count in a Sorted Array</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,14 +237,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -202,6 +254,20 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -312,25 +378,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -350,9 +403,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -366,23 +416,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,49 +463,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="72">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
       </font>
     </dxf>
     <dxf>
@@ -496,6 +531,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -511,6 +560,76 @@
         <b/>
         <i val="0"/>
         <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -559,6 +678,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -574,6 +707,34 @@
         <b/>
         <i val="0"/>
         <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -613,7 +774,154 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -623,7 +931,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="7" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -982,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB564C6-D214-452D-9465-75EB2FBA1F9A}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,48 +1304,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1047,887 +1355,887 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>12</v>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="15"/>
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="15"/>
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="15"/>
+      <c r="B9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="15"/>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="E10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="15"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="15"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="13"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="13"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="13"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="13"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="13"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="13"/>
+      <c r="B69" s="11"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="13"/>
+      <c r="B70" s="11"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="13"/>
+      <c r="B71" s="11"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="13"/>
+      <c r="B72" s="11"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="13"/>
+      <c r="B73" s="11"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="13"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="13"/>
+      <c r="B75" s="11"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="13"/>
+      <c r="B76" s="11"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="13"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
-      <c r="B78" s="13"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
-      <c r="B79" s="13"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
-      <c r="B81" s="13"/>
+      <c r="B81" s="11"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
-      <c r="B82" s="13"/>
+      <c r="B82" s="11"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="13"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
-      <c r="B84" s="13"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="11"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
-      <c r="B86" s="13"/>
+      <c r="B86" s="11"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
-      <c r="B87" s="13"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
-      <c r="B88" s="13"/>
+      <c r="B88" s="11"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
-      <c r="B89" s="13"/>
+      <c r="B89" s="11"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
-      <c r="B90" s="13"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
-      <c r="B91" s="13"/>
+      <c r="B91" s="11"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
-      <c r="B92" s="13"/>
+      <c r="B92" s="11"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
-      <c r="B93" s="13"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
-      <c r="B94" s="13"/>
+      <c r="B94" s="11"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="11"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
-      <c r="B97" s="13"/>
+      <c r="B97" s="11"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
-      <c r="B98" s="13"/>
+      <c r="B98" s="11"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
-      <c r="B100" s="13"/>
+      <c r="B100" s="11"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
-      <c r="B101" s="13"/>
+      <c r="B101" s="11"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
-      <c r="B102" s="13"/>
+      <c r="B102" s="11"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
-      <c r="B103" s="13"/>
+      <c r="B103" s="11"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
-      <c r="B104" s="13"/>
+      <c r="B104" s="11"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="13"/>
+      <c r="B105" s="11"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
-      <c r="B106" s="13"/>
+      <c r="B106" s="11"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="13"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="13"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
-      <c r="B109" s="13"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -3646,41 +3954,39 @@
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5 A133:D262 C5:D5 D6:D80 C6:C63">
-    <cfRule type="expression" dxfId="35" priority="11">
+  <conditionalFormatting sqref="A5 A133:D262 C6:C63 C5:D5 D6:D80">
+    <cfRule type="expression" dxfId="71" priority="11">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="70" priority="12">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 C5:D5 D6:D80 C6:C63">
-    <cfRule type="expression" dxfId="33" priority="10">
+  <conditionalFormatting sqref="A5 C6:C63 C5:D5 D6:D80">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="68" priority="13">
       <formula>$D82="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="67" priority="14">
       <formula>$D82="Easy"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="66" priority="17">
       <formula>$D82="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E30">
-    <cfRule type="expression" dxfId="29" priority="6">
-      <formula>$D5="Hard"</formula>
+    <cfRule type="expression" dxfId="65" priority="4">
+      <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>$D5="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4">
-      <formula>$D5="Medium"</formula>
+    <cfRule type="expression" dxfId="63" priority="6">
+      <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3692,7 +3998,7 @@
     <hyperlink ref="B6" r:id="rId1" display="First Negative in Subarray of size K" xr:uid="{537C3ABB-DD99-4A73-847B-A790A82C9AEE}"/>
     <hyperlink ref="B5" r:id="rId2" display="Max and Min of Subarray of size K" xr:uid="{43A4BC5F-3DD2-45C7-A8C8-0517F0C5D6D2}"/>
     <hyperlink ref="B7" r:id="rId3" display="Max of all Subarrays of size K" xr:uid="{5AC7A676-63B9-437D-96B6-59F0E29AE0AE}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{925662B9-D43E-496C-A48F-7052D9923F25}"/>
+    <hyperlink ref="B8" r:id="rId4" display="Longest Substring With K Distinc Characters (Variable)" xr:uid="{925662B9-D43E-496C-A48F-7052D9923F25}"/>
     <hyperlink ref="B9" r:id="rId5" xr:uid="{521BDB48-64C4-4319-9881-D2A81F97D05D}"/>
     <hyperlink ref="B10" r:id="rId6" display="Fruits in Basket" xr:uid="{DD947E51-5238-4E66-989A-40A6F129C313}"/>
   </hyperlinks>
@@ -3705,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB635F96-B2A0-4F9D-AF7E-C3C20D2FC8BD}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3719,48 +4025,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -3770,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
@@ -3778,301 +4084,371 @@
       <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>8</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="B14" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
@@ -6342,43 +6718,39 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5 A133:D262 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="26" priority="2">
+  <conditionalFormatting sqref="A5 A133:D262 C6:C30 C5:D5 D6:D80">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="24" priority="1">
+  <conditionalFormatting sqref="A5 C6:C30 C5:D5 D6:D80">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>$D82="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>$D82="Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="21" priority="6">
+  <conditionalFormatting sqref="A6:B30 A31:C132">
+    <cfRule type="expression" dxfId="59" priority="6">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="58" priority="7">
       <formula>#REF!="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="9">
+      <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="19" priority="8">
+    <cfRule type="expression" dxfId="56" priority="4">
+      <formula>$D82="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="5">
+      <formula>$D82="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="8">
       <formula>$D82="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="18" priority="9">
-      <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -6390,9 +6762,13 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{64F6C012-1D08-4268-842D-9B6BC4F02C26}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{FAE218AC-C7E2-4AFF-94E5-39C55A5EA6B7}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{780739B6-4BC7-45E9-BB99-A92537CA68B5}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{D608C8E9-9858-4EE0-9B7C-6CB3BD0E754C}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{2290D499-1B47-44C9-9C2B-F633784B4C46}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{90CD1084-CE4F-4CA3-8DBA-7184FDDA18A8}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{7AD383C1-15B9-4870-B692-0B7AC3A88461}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6414,29 +6790,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -6458,7 +6834,7 @@
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="6"/>
@@ -8904,43 +9280,39 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
+  <conditionalFormatting sqref="A6:C132">
+    <cfRule type="expression" dxfId="53" priority="6">
+      <formula>#REF!="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="7">
+      <formula>#REF!="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="9">
+      <formula>#REF!="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A5:E5 A133:E262 E6:E132">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:E5 E6:E132">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D132">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>$D7="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5">
+    <cfRule type="expression" dxfId="46" priority="5">
       <formula>$D7="Easy"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>#REF!="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>#REF!="Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D132">
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="45" priority="8">
       <formula>$D7="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8955,10 +9327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EE43EF-DE37-4EFA-AA35-4E041E696F54}">
-  <dimension ref="A1:F312"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8968,35 +9340,36 @@
     <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="7" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -9013,911 +9386,956 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>19</v>
+      <c r="B5" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>41</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="31"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="31"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="B90" s="31"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="31"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="31"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="31"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="31"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="31"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="31"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="31"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="B102" s="31"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="31"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="B104" s="31"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="31"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="B107" s="31"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="B108" s="31"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="31"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="B110" s="31"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="31"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="B112" s="31"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="31"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="B114" s="31"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="B115" s="31"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="B116" s="31"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="B117" s="31"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="B118" s="31"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="B130" s="31"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="str">
@@ -11471,42 +11889,40 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:E5 A133:E262 E6:E132">
-    <cfRule type="expression" dxfId="8" priority="2">
+  <conditionalFormatting sqref="A5:E5 E6:E132 B6 A7:E262">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 E6:E132">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="A5:E5 E6:E132 B6 A7:E132">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D132">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$D7="Medium"</formula>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>$D6="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$D7="Easy"</formula>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>$D6="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="3" priority="6">
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>$D6="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>#REF!="Easy"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D132">
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$D7="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11517,8 +11933,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{068DA5D2-E32C-45F8-ABAD-1AEAC94BA901}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{FFC1CA2A-1556-4BB2-834B-0A8E4BDB9ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA61F56-B202-4164-87C7-8778F4287EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F9FCD-7ACE-422A-9FF1-912FB13111CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B44E0707-5529-4A48-833F-6F1B1B595673}"/>
   </bookViews>
@@ -28,15 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>SR.NO</t>
   </si>
   <si>
     <t>Problem Name</t>
-  </si>
-  <si>
-    <t>Link</t>
   </si>
   <si>
     <t>Comments</t>
@@ -191,12 +188,51 @@
   <si>
     <t>Rotation Count in a Sorted Array</t>
   </si>
+  <si>
+    <t>Maximum SubArray Sum</t>
+  </si>
+  <si>
+    <t>1. Maintain a Sum                                        2. Update Max if sum is greater than Max   3.If the Current Sum is less than 0 , Make the sum to 0</t>
+  </si>
+  <si>
+    <t>Kadanes Algorithm</t>
+  </si>
+  <si>
+    <t>The Painter's Partition Problem-II                        Aggressive Cows</t>
+  </si>
+  <si>
+    <t>1. Find a Range First                                                                         2. Find Condition to move left or right after saving the ANS</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>1. Must Start from the Last position to compare , since the Max is fixed                   2.Compare till both index are greater than 0                                                                     3.Now add remaining to ans array and Return</t>
+  </si>
+  <si>
+    <t>Move Zeros</t>
+  </si>
+  <si>
+    <t>1. Take Two Pointers s and e                      2.S will stay at 0 and e will move till it finds a Non Zero integer. When Non zero Integer is found we swap. And Make s++</t>
+  </si>
+  <si>
+    <t>Check If Array is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t>1. If less than or equal to 1 element are peak there then  means Sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Here , Compare mid with its next only if(mid&gt;mid+1){}else{ } and shift Accordingly.                                                                                   2.While loop goes from till s&lt;e and not s&lt;=e    3.Catch here is, When shifting to Right do mid+1, but                                    4.When shifting to Left do mid since we do not want to go past the Mid value     </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +304,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -383,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,9 +466,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,6 +482,27 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,49 +525,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -546,230 +571,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="0.39994506668294322"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -1290,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB564C6-D214-452D-9465-75EB2FBA1F9A}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1304,48 +1105,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="24"/>
+      <c r="A1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -1355,59 +1156,59 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
+      <c r="E4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1422,14 +1223,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1444,14 +1245,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1466,14 +1267,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1488,14 +1289,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -3955,37 +3756,37 @@
     <mergeCell ref="F1:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5 A133:D262 C6:C63 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="71" priority="11">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="12">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 C6:C63 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="68" priority="13">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>$D82="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="14">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula>$D82="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="17">
+    <cfRule type="expression" dxfId="30" priority="17">
       <formula>$D82="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E30">
-    <cfRule type="expression" dxfId="65" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="28" priority="5">
       <formula>$D5="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="6">
+    <cfRule type="expression" dxfId="27" priority="6">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4011,8 +3812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB635F96-B2A0-4F9D-AF7E-C3C20D2FC8BD}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E20" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4025,13 +3826,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -4041,11 +3842,11 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="8"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -4055,11 +3856,11 @@
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -4076,13 +3877,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -4097,16 +3898,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
@@ -4121,22 +3922,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4149,14 +3950,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -4171,14 +3972,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -4193,14 +3994,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -4214,15 +4015,15 @@
       <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>41</v>
+      <c r="B10" s="20" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -4236,15 +4037,15 @@
       <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>44</v>
+      <c r="B11" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -4258,15 +4059,15 @@
       <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>43</v>
+      <c r="B12" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4280,15 +4081,15 @@
       <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>47</v>
+      <c r="B13" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4302,15 +4103,15 @@
       <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>49</v>
+      <c r="B14" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4320,18 +4121,22 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -6719,37 +6524,37 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5 A133:D262 C6:C30 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5 C6:C30 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B30 A31:C132">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>#REF!="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="56" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>$D82="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>$D82="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>$D82="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6766,9 +6571,10 @@
     <hyperlink ref="B8" r:id="rId5" xr:uid="{2290D499-1B47-44C9-9C2B-F633784B4C46}"/>
     <hyperlink ref="B13" r:id="rId6" xr:uid="{90CD1084-CE4F-4CA3-8DBA-7184FDDA18A8}"/>
     <hyperlink ref="B14" r:id="rId7" xr:uid="{7AD383C1-15B9-4870-B692-0B7AC3A88461}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{FCB53DEC-0E87-4A67-ABE1-2E4DE6D3AA74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -6777,7 +6583,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6790,29 +6596,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -6823,515 +6629,545 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="21"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="21"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="21"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="21"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="21"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="21"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="21"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="21"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="21"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="21"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="21"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="25"/>
+    </row>
+    <row r="54" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9280,39 +9116,39 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:C132">
-    <cfRule type="expression" dxfId="53" priority="6">
+  <conditionalFormatting sqref="A6:A76 A77:C132 C54:C76">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>#REF!="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 A133:E262 E6:E132">
-    <cfRule type="expression" dxfId="50" priority="2">
+  <conditionalFormatting sqref="A5:E5 A133:E262 B8:B76 B6:E7 C8:D53 E8:E132">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 E6:E132">
-    <cfRule type="expression" dxfId="48" priority="1">
+  <conditionalFormatting sqref="A5:E5 B8:B76 B6:E7 C8:D53 E8:E132">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D132">
-    <cfRule type="expression" dxfId="47" priority="4">
-      <formula>$D7="Medium"</formula>
+  <conditionalFormatting sqref="D54:D132">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>$D55="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5">
-      <formula>$D7="Easy"</formula>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>$D55="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="8">
-      <formula>$D7="Hard"</formula>
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>$D55="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9320,8 +9156,13 @@
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{B6711C9A-1A35-411C-8073-9106E39226CF}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{29ED1B92-768B-4A32-BAED-ADFC46A12FAD}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{E2F5BB4D-F507-4651-9176-9E37966432A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9329,8 +9170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EE43EF-DE37-4EFA-AA35-4E041E696F54}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9344,29 +9185,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -9377,53 +9218,53 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>53</v>
+      <c r="B6" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="22" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -9435,907 +9276,917 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>41</v>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>43</v>
+      <c r="B8" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>47</v>
+      <c r="B9" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="6"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="31"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="31"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="31"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="31"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="31"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="31"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="31"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="31"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="31"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="31"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="31"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="31"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="31"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="31"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="31"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="6"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="6"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="31"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="6"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="31"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="6"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="31"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="6"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="31"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="6"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="31"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="6"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="31"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="6"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="B44" s="31"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
-      <c r="B45" s="31"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="31"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="31"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="6"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="6"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="31"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="31"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="6"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="31"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="6"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="31"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="6"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="31"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="6"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="31"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="6"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="B55" s="31"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="6"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="B56" s="31"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="31"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="31"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="6"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="31"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="31"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="6"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="31"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
-      <c r="B62" s="31"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="6"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="31"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="6"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
-      <c r="B64" s="31"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="6"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="6"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
-      <c r="B66" s="31"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="6"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="31"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="6"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="31"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="6"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="31"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="6"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
-      <c r="B70" s="31"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
-      <c r="B71" s="31"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
-      <c r="B72" s="31"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="6"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
-      <c r="B73" s="31"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="6"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
-      <c r="B74" s="31"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="31"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="6"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
-      <c r="B76" s="31"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="6"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
-      <c r="B77" s="31"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
-      <c r="B78" s="31"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="6"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
-      <c r="B79" s="31"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="6"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
-      <c r="B80" s="31"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="6"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
-      <c r="B81" s="31"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="6"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
-      <c r="B82" s="31"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
-      <c r="B83" s="31"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="6"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
-      <c r="B84" s="31"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
-      <c r="B85" s="31"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="6"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
-      <c r="B86" s="31"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="6"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
-      <c r="B87" s="31"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="6"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="31"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="6"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
-      <c r="B89" s="31"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="6"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
-      <c r="B90" s="31"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
-      <c r="B91" s="31"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
-      <c r="B92" s="31"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="6"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="31"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="6"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
-      <c r="B94" s="31"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="6"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
-      <c r="B95" s="31"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="6"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
-      <c r="B96" s="31"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="6"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
-      <c r="B97" s="31"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="6"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="31"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="6"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
-      <c r="B99" s="31"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="6"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
-      <c r="B100" s="31"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="6"/>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
-      <c r="B101" s="31"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="6"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
-      <c r="B102" s="31"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="6"/>
+      <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
-      <c r="B103" s="31"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="6"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
-      <c r="B104" s="31"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="6"/>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
-      <c r="B105" s="31"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
-      <c r="B106" s="31"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="6"/>
+      <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
-      <c r="B107" s="31"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="6"/>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
-      <c r="B108" s="31"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="6"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
-      <c r="B109" s="31"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="6"/>
+      <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
-      <c r="B110" s="31"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="6"/>
+      <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
-      <c r="B111" s="31"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="6"/>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
-      <c r="B112" s="31"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="6"/>
+      <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
-      <c r="B113" s="31"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="6"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
-      <c r="B114" s="31"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="6"/>
+      <c r="E114" s="7"/>
     </row>
     <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
-      <c r="B115" s="31"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="6"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
-      <c r="B116" s="31"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="6"/>
+      <c r="E116" s="7"/>
     </row>
     <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="6"/>
+      <c r="E117" s="7"/>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
-      <c r="B118" s="31"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="6"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
-      <c r="B119" s="31"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="6"/>
+      <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
-      <c r="B120" s="31"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
-      <c r="E120" s="6"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
-      <c r="B121" s="31"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="6"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
-      <c r="B122" s="31"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
-      <c r="E122" s="6"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
-      <c r="B123" s="31"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="6"/>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
-      <c r="B124" s="31"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
-      <c r="E124" s="6"/>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
-      <c r="B125" s="31"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
-      <c r="E125" s="6"/>
+      <c r="E125" s="7"/>
     </row>
     <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
-      <c r="B126" s="31"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
-      <c r="E126" s="6"/>
+      <c r="E126" s="7"/>
     </row>
     <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
-      <c r="E127" s="6"/>
+      <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
-      <c r="B128" s="31"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
-      <c r="E128" s="6"/>
+      <c r="E128" s="7"/>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
-      <c r="B129" s="31"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
-      <c r="E129" s="6"/>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
-      <c r="B130" s="31"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
-      <c r="E130" s="6"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
-      <c r="B131" s="31"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
-      <c r="E131" s="6"/>
+      <c r="E131" s="7"/>
     </row>
     <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
-      <c r="B132" s="31"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
-      <c r="E132" s="6"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="str">
@@ -11889,41 +11740,39 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:E5 E6:E132 B6 A7:E262">
-    <cfRule type="expression" dxfId="8" priority="8">
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>#REF!="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>#REF!="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>#REF!="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:E5 A7:E132 E6:E132">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$D5="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:E5 A7:E262 E6:E132">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 E6:E132 B6 A7:E132">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>$D5="Hard"</formula>
+  <conditionalFormatting sqref="B6:D6">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$D6="Hard"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:D6">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D6="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$D6="Easy"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:D6">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>$D6="Hard"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>#REF!="Medium"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
-      <formula>#REF!="Easy"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11934,8 +11783,9 @@
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{068DA5D2-E32C-45F8-ABAD-1AEAC94BA901}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{FFC1CA2A-1556-4BB2-834B-0A8E4BDB9ACF}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{A0E43FA1-B54A-4C00-8DFE-254C90A2BE94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Prep\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F9FCD-7ACE-422A-9FF1-912FB13111CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5CCE47-53C3-40E7-A9EF-BB79C557F25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B44E0707-5529-4A48-833F-6F1B1B595673}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B44E0707-5529-4A48-833F-6F1B1B595673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sliding Window" sheetId="1" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="3" r:id="rId2"/>
     <sheet name="General" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="73">
   <si>
     <t>SR.NO</t>
   </si>
@@ -226,6 +227,27 @@
   </si>
   <si>
     <t xml:space="preserve">1. Here , Compare mid with its next only if(mid&gt;mid+1){}else{ } and shift Accordingly.                                                                                   2.While loop goes from till s&lt;e and not s&lt;=e    3.Catch here is, When shifting to Right do mid+1, but                                    4.When shifting to Left do mid since we do not want to go past the Mid value     </t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Reverse A Linked List</t>
+  </si>
+  <si>
+    <t>1. Use the Three Pointer Method so that we will maintain the forward array and make changes to current element using prev location.</t>
+  </si>
+  <si>
+    <t>1. Find Middle Element by generating total size of the array and then again looping till middle of the size.                                                                                                                        Approach 2. Use two pinter 1 will move 1 space at time and 2nd will move 2 spaces, at the time 2nd is Null you will have your 1st at the Middle.</t>
+  </si>
+  <si>
+    <t>Middle Of The Linked List</t>
+  </si>
+  <si>
+    <t>Reverse List In K Groups</t>
+  </si>
+  <si>
+    <t>1. First reverse the K elements and then call recusrion</t>
   </si>
 </sst>
 </file>
@@ -530,7 +552,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF92D050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3755,38 +3819,38 @@
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5 A133:D262 C6:C63 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="35" priority="11">
+  <conditionalFormatting sqref="A5 C5:D5 C6:C63 D6:D80 A133:D262">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="40" priority="12">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 C6:C63 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="33" priority="10">
+  <conditionalFormatting sqref="A5 C5:D5 C6:C63 D6:D80">
+    <cfRule type="expression" dxfId="39" priority="10">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="38" priority="13">
       <formula>$D82="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14">
+    <cfRule type="expression" dxfId="37" priority="14">
       <formula>$D82="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="17">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>$D82="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E30">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="34" priority="5">
       <formula>$D5="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3812,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB635F96-B2A0-4F9D-AF7E-C3C20D2FC8BD}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E20" sqref="E19:E20"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6523,38 +6587,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5 A133:D262 C6:C30 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="26" priority="2">
+  <conditionalFormatting sqref="A5 C5:D5 C6:C30 D6:D80 A133:D262">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="31" priority="3">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5 C6:C30 C5:D5 D6:D80">
-    <cfRule type="expression" dxfId="24" priority="1">
+  <conditionalFormatting sqref="A5 C5:D5 C6:C30 D6:D80">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B30 A31:C132">
-    <cfRule type="expression" dxfId="23" priority="6">
+    <cfRule type="expression" dxfId="29" priority="6">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="7">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>#REF!="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D132">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>$D82="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>$D82="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>$D82="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6583,7 +6647,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9116,38 +9180,38 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:A76 A77:C132 C54:C76">
-    <cfRule type="expression" dxfId="17" priority="6">
+  <conditionalFormatting sqref="A6:A76 C54:C76 A77:C132">
+    <cfRule type="expression" dxfId="23" priority="6">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="22" priority="7">
       <formula>#REF!="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 A133:E262 B8:B76 B6:E7 C8:D53 E8:E132">
-    <cfRule type="expression" dxfId="14" priority="2">
+  <conditionalFormatting sqref="A5:E5 B6:E7 C8:D53 B8:B76 E8:E132 A133:E262">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 B8:B76 B6:E7 C8:D53 E8:E132">
-    <cfRule type="expression" dxfId="12" priority="1">
+  <conditionalFormatting sqref="A5:E5 B6:E7 C8:D53 B8:B76 E8:E132">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D132">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>$D55="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5">
+    <cfRule type="expression" dxfId="16" priority="5">
       <formula>$D55="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>$D55="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9167,10 +9231,160 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E93ECE-3883-47BC-9174-7E4A58401639}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" customWidth="1"/>
+    <col min="5" max="5" width="85.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>#REF!="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>#REF!="Easy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>#REF!="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:E5 B6:E7">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D5="Medium"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$D5="Easy"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:E5 B6:E7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D5="Hard"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D7" xr:uid="{1CD8F08A-019E-49CE-944B-0F06AA3D1382}">
+      <formula1>"Easy,Medium,Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{01B932FD-4FFF-4C0A-A5A7-CF9B645F068A}"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{E8F65880-0A76-4BAA-8E44-8BC87EA87B01}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://www.codingninjas.com/codestudio/problems/reverse-list-in-k-groups_983644" xr:uid="{CC725FFE-1F96-486F-B87B-5AB9A43400CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EE43EF-DE37-4EFA-AA35-4E041E696F54}">
   <dimension ref="A1:L312"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -11741,37 +11955,37 @@
     <mergeCell ref="A1:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>#REF!="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>#REF!="Easy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>#REF!="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 A7:E132 E6:E132">
-    <cfRule type="expression" dxfId="5" priority="7">
+  <conditionalFormatting sqref="A5:E5 E6:E132 A7:E132">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$D5="Hard"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E5 A7:E262 E6:E132">
-    <cfRule type="expression" dxfId="4" priority="8">
+  <conditionalFormatting sqref="A5:E5 E6:E132 A7:E262">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$D5="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$D5="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:D6">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D6="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$D6="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$D6="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
